--- a/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\Dokumenter\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5F67F-D96E-40A2-9381-83B270570276}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A24369-EF1B-4131-8CDD-7620A37BA0C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -167,6 +167,27 @@
   </si>
   <si>
     <t>Kravindsamling og UC diagram</t>
+  </si>
+  <si>
+    <t>Diverse projektrelaterede opgaver</t>
+  </si>
+  <si>
+    <t>Lavet mockups til UC01 og UC02</t>
+  </si>
+  <si>
+    <t>Review af visionsdokument</t>
+  </si>
+  <si>
+    <t>Lavet readme</t>
+  </si>
+  <si>
+    <t>Review af risikoanalyse og rettelser til metrikker</t>
+  </si>
+  <si>
+    <t>Rettet readme</t>
+  </si>
+  <si>
+    <t>Projektplan og gruppemøde</t>
   </si>
 </sst>
 </file>
@@ -317,7 +338,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -354,19 +375,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -748,7 +775,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,22 +784,22 @@
     <col min="3" max="3" width="31.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="31" style="15" customWidth="1"/>
-    <col min="6" max="6" width="31" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31" style="18" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -813,7 +840,7 @@
       <c r="E3" s="12">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>E3-D3</f>
         <v>0.11805555555555558</v>
       </c>
@@ -839,7 +866,7 @@
       <c r="E4" s="14">
         <v>0.5625</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <f>E4-D4</f>
         <v>9.0277777777777735E-2</v>
       </c>
@@ -865,7 +892,7 @@
       <c r="E5" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <f>E5-D5</f>
         <v>6.25E-2</v>
       </c>
@@ -879,335 +906,420 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.27083333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.27083333333333331</v>
+        <v>0.42361111111111105</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F9" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.27083333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F10" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.27083333333333331</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.27083333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43963</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="F12" s="21">
+        <v>6.25E-2</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="13"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="13"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="13"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="13"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="13"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="13"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="13"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="13"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="13"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="13"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="13"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="13"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="13"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="13"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="13"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="13"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="13"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="13"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.27083333333333331</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1296,13 +1408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\Dokumenter\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A24369-EF1B-4131-8CDD-7620A37BA0C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8AAFA-9D28-40F0-945C-5247BEE530A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>Tidsregistrering af (Navn)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Dato</t>
   </si>
@@ -188,6 +185,39 @@
   </si>
   <si>
     <t>Projektplan og gruppemøde</t>
+  </si>
+  <si>
+    <t>Lavet UC01 Åbn beskeder</t>
+  </si>
+  <si>
+    <t>Lavet DOM02 Send besked</t>
+  </si>
+  <si>
+    <t>Lavet AD02 Send besked</t>
+  </si>
+  <si>
+    <t>Lavet SSD01 Åbn beskeder</t>
+  </si>
+  <si>
+    <t>Review af SSD02 Send besked</t>
+  </si>
+  <si>
+    <t>Diverse opgaver</t>
+  </si>
+  <si>
+    <t>Vejledning med Anders</t>
+  </si>
+  <si>
+    <t>Lavet UCD01</t>
+  </si>
+  <si>
+    <t>Tidsregistrering af Emil</t>
+  </si>
+  <si>
+    <t>Startet på rettelse af UC01</t>
+  </si>
+  <si>
+    <t>Rettelser efter vejledning og mockups</t>
   </si>
 </sst>
 </file>
@@ -772,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +821,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -803,33 +833,33 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13">
         <v>43962</v>
@@ -855,7 +885,7 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="13">
         <v>43962</v>
@@ -881,7 +911,7 @@
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13">
         <v>43962</v>
@@ -907,7 +937,7 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="13">
         <v>43963</v>
@@ -932,7 +962,7 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="13">
         <v>43963</v>
@@ -957,7 +987,7 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="13">
         <v>43963</v>
@@ -982,7 +1012,7 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="13">
         <v>43963</v>
@@ -1007,7 +1037,7 @@
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13">
         <v>43963</v>
@@ -1032,7 +1062,7 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="13">
         <v>43963</v>
@@ -1057,7 +1087,7 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13">
         <v>43963</v>
@@ -1081,140 +1111,281 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.54513888888888884</v>
+        <v>0.58680555555555547</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="13"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.54513888888888884</v>
+        <v>0.62499999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="13"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F15" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.54513888888888884</v>
+        <v>0.69444444444444431</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="13"/>
-      <c r="F16" s="22"/>
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="13"/>
-      <c r="F17" s="22"/>
+        <v>0.71180555555555547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="F18" s="22"/>
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777679E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="F19" s="22"/>
+        <v>0.81944444444444431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43964</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
-      <c r="F20" s="22"/>
+        <v>0.88194444444444431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43965</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
-      <c r="F21" s="22"/>
+        <v>0.92361111111111094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43965</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="F21" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
-      <c r="F22" s="22"/>
+        <v>0.96527777777777768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43965</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="F23" s="22"/>
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43965</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="13"/>
       <c r="F24" s="22"/>
       <c r="G24" s="5">
@@ -1223,10 +1394,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="13"/>
       <c r="F25" s="23"/>
       <c r="G25" s="5">
@@ -1235,10 +1406,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="13"/>
       <c r="F26" s="23"/>
       <c r="G26" s="5">
@@ -1247,10 +1418,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="13"/>
       <c r="F27" s="23"/>
       <c r="G27" s="5">
@@ -1259,10 +1430,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="13"/>
       <c r="F28" s="23"/>
       <c r="G28" s="5">
@@ -1271,10 +1442,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="13"/>
       <c r="F29" s="23"/>
       <c r="G29" s="5">
@@ -1283,10 +1454,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="13"/>
       <c r="F30" s="23"/>
       <c r="G30" s="5">
@@ -1295,10 +1466,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="13"/>
       <c r="F31" s="23"/>
       <c r="G31" s="5">
@@ -1307,10 +1478,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="13"/>
       <c r="F32" s="23"/>
       <c r="G32" s="5">
@@ -1319,53 +1490,200 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.54513888888888884</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F33" s="23"/>
+      <c r="G33" s="5">
+        <f t="shared" ref="G33:G48" si="1">E33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>SUM(G$3:G33)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F34" s="23"/>
+      <c r="G34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>SUM(G$3:G34)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F35" s="23"/>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f>SUM(G$3:G35)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F36" s="23"/>
+      <c r="G36" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f>SUM(G$3:G36)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F37" s="23"/>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>SUM(G$3:G37)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F38" s="23"/>
+      <c r="G38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f>SUM(G$3:G38)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F39" s="23"/>
+      <c r="G39" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f>SUM(G$3:G39)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F40" s="23"/>
+      <c r="G40" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f>SUM(G$3:G40)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F41" s="23"/>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f>SUM(G$3:G41)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F42" s="23"/>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f>SUM(G$3:G42)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F43" s="23"/>
+      <c r="G43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f>SUM(G$3:G43)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F44" s="23"/>
+      <c r="G44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f>SUM(G$3:G44)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F45" s="23"/>
+      <c r="G45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f>SUM(G$3:G45)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F46" s="23"/>
+      <c r="G46" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f>SUM(G$3:G46)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C47" s="13"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f>SUM(G$3:G47)</f>
+        <v>1.1736111111111112</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C48" s="13"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f>SUM(G$3:G48)</f>
+        <v>1.1736111111111112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,7 +1693,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
       <formula1>Roller</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C33:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C49:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
@@ -1383,7 +1701,7 @@
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C32" xr:uid="{B13C07BB-FB94-46B8-80C2-82B0877D2155}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C48" xr:uid="{B13C07BB-FB94-46B8-80C2-82B0877D2155}">
       <formula1>43962</formula1>
       <formula2>43988</formula2>
     </dataValidation>
@@ -1409,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1418,10 +1736,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1437,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1525,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1533,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1867,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1883,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1899,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1907,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1915,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1923,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1939,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1955,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1963,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\Dokumenter\1AarsProjekt\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8AAFA-9D28-40F0-945C-5247BEE530A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFE587B-5A0A-451B-8DBA-B199BF6E6A48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="2535" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Dato</t>
   </si>
@@ -218,14 +218,30 @@
   </si>
   <si>
     <t>Rettelser efter vejledning og mockups</t>
+  </si>
+  <si>
+    <t>ATD01 og ATD02</t>
+  </si>
+  <si>
+    <t>Lavet OC02 sendBesked</t>
+  </si>
+  <si>
+    <t>Lavet iterationsplan #2</t>
+  </si>
+  <si>
+    <t>Reviews og revidering af OC01 og OC02</t>
+  </si>
+  <si>
+    <t>Skrevet rapport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd:hh:mm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -368,9 +384,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,11 +429,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,885 +821,950 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="31" style="15" customWidth="1"/>
-    <col min="6" max="6" width="31" style="18" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="53.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="31" style="14" customWidth="1"/>
+    <col min="6" max="6" width="31" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>43962</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>E3-D3</f>
         <v>0.11805555555555558</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>E3-D3</f>
         <v>0.11805555555555558</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="22">
         <f>SUM(G$3:G3)</f>
         <v>0.11805555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>43962</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0.5625</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f>E4-D4</f>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="22">
         <f>SUM(G$3:G4)</f>
         <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>43962</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f>E5-D5</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="22">
         <f>SUM(G$3:G5)</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>43963</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.375</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="22">
         <f>SUM(G$3:G6)</f>
         <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>43963</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.375</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.5</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="22">
         <f>SUM(G$3:G7)</f>
         <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>43963</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.54861111111111105</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="22">
         <f>SUM(G$3:G8)</f>
         <v>0.42361111111111105</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>43963</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="22">
         <f>SUM(G$3:G9)</f>
         <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>43963</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.55902777777777779</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.625</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="22">
         <f>SUM(G$3:G10)</f>
         <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>43963</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.625</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="22">
         <f>SUM(G$3:G11)</f>
         <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>43963</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>6.25E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="22">
         <f>SUM(G$3:G12)</f>
         <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>43964</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="22">
         <f>SUM(G$3:G13)</f>
         <v>0.58680555555555547</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>43964</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>0.4375</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="22">
         <f>SUM(G$3:G14)</f>
         <v>0.62499999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>43964</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>6.944444444444442E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="22">
         <f>SUM(G$3:G15)</f>
         <v>0.69444444444444431</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>43964</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>0.55902777777777779</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="22">
         <f>SUM(G$3:G16)</f>
         <v>0.71180555555555547</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>43964</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.55902777777777779</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>0.57638888888888895</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="22">
         <f>SUM(G$3:G17)</f>
         <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>43964</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>0.57638888888888895</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="22">
         <f>SUM(G$3:G18)</f>
         <v>0.81944444444444431</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>43964</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="22">
         <f>SUM(G$3:G19)</f>
         <v>0.88194444444444431</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>43965</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="22">
         <f>SUM(G$3:G20)</f>
         <v>0.92361111111111094</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>43965</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>0.4375</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="22">
         <f>SUM(G$3:G21)</f>
         <v>0.96527777777777768</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>43965</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0.5</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="22">
         <f>SUM(G$3:G22)</f>
         <v>1.0277777777777777</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>43965</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0.6875</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="22">
         <f>SUM(G$3:G23)</f>
         <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="5">
+      <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F24" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H24" s="22">
+        <f>SUM(G$3:G24)</f>
+        <v>1.2083333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F25" s="23">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="H25" s="22">
+        <f>SUM(G$3:G25)</f>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="H26" s="22">
+        <f>SUM(G$3:G26)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F27" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H27" s="22">
+        <f>SUM(G$3:G27)</f>
+        <v>1.3055555555555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="H28" s="22">
+        <f>SUM(G$3:G28)</f>
+        <v>1.4097222222222223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="1">
-        <f>SUM(G$3:G24)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="13"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="5">
+      <c r="H29" s="22">
+        <f>SUM(G$3:G29)</f>
+        <v>1.4097222222222223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C30" s="12"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="1">
-        <f>SUM(G$3:G25)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="5">
+      <c r="H30" s="22">
+        <f>SUM(G$3:G30)</f>
+        <v>1.4097222222222223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C31" s="12"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="1">
-        <f>SUM(G$3:G26)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="13"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="5">
+      <c r="H31" s="22">
+        <f>SUM(G$3:G31)</f>
+        <v>1.4097222222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C32" s="12"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="1">
-        <f>SUM(G$3:G27)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="13"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>SUM(G$3:G28)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f>SUM(G$3:G29)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>SUM(G$3:G30)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f>SUM(G$3:G31)</f>
-        <v>1.1736111111111112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="H32" s="22">
         <f>SUM(G$3:G32)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="13"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="5">
+      <c r="C33" s="12"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="4">
         <f t="shared" ref="G33:G48" si="1">E33-D33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="22">
         <f>SUM(G$3:G33)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="5">
+      <c r="C34" s="12"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="22">
         <f>SUM(G$3:G34)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="13"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="5">
+      <c r="C35" s="12"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="22">
         <f>SUM(G$3:G35)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C36" s="13"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="5">
+      <c r="C36" s="12"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="22">
         <f>SUM(G$3:G36)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C37" s="13"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="5">
+      <c r="C37" s="12"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="22">
         <f>SUM(G$3:G37)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C38" s="13"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="5">
+      <c r="C38" s="12"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="22">
         <f>SUM(G$3:G38)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C39" s="13"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="5">
+      <c r="C39" s="12"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="22">
         <f>SUM(G$3:G39)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C40" s="13"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="5">
+      <c r="C40" s="12"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="22">
         <f>SUM(G$3:G40)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C41" s="13"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="5">
+      <c r="C41" s="12"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="22">
         <f>SUM(G$3:G41)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="5">
+      <c r="C42" s="12"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="22">
         <f>SUM(G$3:G42)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C43" s="13"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="5">
+      <c r="C43" s="12"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="22">
         <f>SUM(G$3:G43)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C44" s="13"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="5">
+      <c r="C44" s="12"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="22">
         <f>SUM(G$3:G44)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C45" s="13"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="5">
+      <c r="C45" s="12"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="22">
         <f>SUM(G$3:G45)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C46" s="13"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="5">
+      <c r="C46" s="12"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="22">
         <f>SUM(G$3:G46)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C47" s="13"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="5">
+      <c r="C47" s="12"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="22">
         <f>SUM(G$3:G47)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C48" s="13"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="5">
+      <c r="C48" s="12"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="22">
         <f>SUM(G$3:G48)</f>
-        <v>1.1736111111111112</v>
+        <v>1.4097222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -1726,13 +1808,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM02 Tidsregistrering for Emil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFE587B-5A0A-451B-8DBA-B199BF6E6A48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D16885-CDC2-4FE5-9BC6-86B4344C1DA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="3555" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Dato</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>Skrevet rapport</t>
+  </si>
+  <si>
+    <t>Mockups til UC03, UC05, UC06, UC10</t>
+  </si>
+  <si>
+    <t>Samarbejde om DCD og SD</t>
+  </si>
+  <si>
+    <t>Kundemøde</t>
   </si>
 </sst>
 </file>
@@ -821,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,51 +1537,103 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-      <c r="F29" s="21"/>
+      <c r="A29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="12">
+        <v>43969</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="23">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="H29" s="22">
         <f>SUM(G$3:G29)</f>
-        <v>1.4097222222222223</v>
+        <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="12"/>
-      <c r="F30" s="21"/>
+      <c r="A30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="12">
+        <v>43969</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F30" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H30" s="22">
         <f>SUM(G$3:G30)</f>
-        <v>1.4097222222222223</v>
+        <v>1.5972222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C31" s="12"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="12">
+        <v>43969</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F31" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H31" s="22">
         <f>SUM(G$3:G31)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6388888888888888</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="12">
+        <v>43969</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F32" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H32" s="22">
         <f>SUM(G$3:G32)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1584,7 +1645,7 @@
       </c>
       <c r="H33" s="22">
         <f>SUM(G$3:G33)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1596,7 +1657,7 @@
       </c>
       <c r="H34" s="22">
         <f>SUM(G$3:G34)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1608,7 +1669,7 @@
       </c>
       <c r="H35" s="22">
         <f>SUM(G$3:G35)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1620,7 +1681,7 @@
       </c>
       <c r="H36" s="22">
         <f>SUM(G$3:G36)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1632,7 +1693,7 @@
       </c>
       <c r="H37" s="22">
         <f>SUM(G$3:G37)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1644,7 +1705,7 @@
       </c>
       <c r="H38" s="22">
         <f>SUM(G$3:G38)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1656,7 +1717,7 @@
       </c>
       <c r="H39" s="22">
         <f>SUM(G$3:G39)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1668,7 +1729,7 @@
       </c>
       <c r="H40" s="22">
         <f>SUM(G$3:G40)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1680,7 +1741,7 @@
       </c>
       <c r="H41" s="22">
         <f>SUM(G$3:G41)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1692,7 +1753,7 @@
       </c>
       <c r="H42" s="22">
         <f>SUM(G$3:G42)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1704,7 +1765,7 @@
       </c>
       <c r="H43" s="22">
         <f>SUM(G$3:G43)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1716,7 +1777,7 @@
       </c>
       <c r="H44" s="22">
         <f>SUM(G$3:G44)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1728,7 +1789,7 @@
       </c>
       <c r="H45" s="22">
         <f>SUM(G$3:G45)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1740,7 +1801,7 @@
       </c>
       <c r="H46" s="22">
         <f>SUM(G$3:G46)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1752,7 +1813,7 @@
       </c>
       <c r="H47" s="22">
         <f>SUM(G$3:G47)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1764,7 +1825,7 @@
       </c>
       <c r="H48" s="22">
         <f>SUM(G$3:G48)</f>
-        <v>1.4097222222222223</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
   </sheetData>
